--- a/INTLINE/data/136/BOI/Price-competitiveness indicator_historical.xlsx
+++ b/INTLINE/data/136/BOI/Price-competitiveness indicator_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XC2"/>
+  <dimension ref="A1:XD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3497,6 +3497,11 @@
           <t>2022-02</t>
         </is>
       </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4372,10 +4377,10 @@
         <v>94.72235999999999</v>
       </c>
       <c r="KE2" t="n">
-        <v>95.24618</v>
+        <v>95.24617000000001</v>
       </c>
       <c r="KF2" t="n">
-        <v>95.1673</v>
+        <v>95.16731</v>
       </c>
       <c r="KG2" t="n">
         <v>97.91777999999999</v>
@@ -4387,13 +4392,13 @@
         <v>97.20392</v>
       </c>
       <c r="KJ2" t="n">
-        <v>96.37833000000001</v>
+        <v>96.37833999999999</v>
       </c>
       <c r="KK2" t="n">
         <v>95.23647</v>
       </c>
       <c r="KL2" t="n">
-        <v>95.53055000000001</v>
+        <v>95.53054</v>
       </c>
       <c r="KM2" t="n">
         <v>95.56207999999999</v>
@@ -4495,7 +4500,7 @@
         <v>98.65115</v>
       </c>
       <c r="LT2" t="n">
-        <v>98.04846000000001</v>
+        <v>98.04845</v>
       </c>
       <c r="LU2" t="n">
         <v>97.10702999999999</v>
@@ -4588,799 +4593,802 @@
         <v>97.22696000000001</v>
       </c>
       <c r="MY2" t="n">
-        <v>96.26465</v>
+        <v>96.26396</v>
       </c>
       <c r="MZ2" t="n">
-        <v>95.49745</v>
+        <v>95.49621999999999</v>
       </c>
       <c r="NA2" t="n">
-        <v>94.69499</v>
+        <v>94.69432999999999</v>
       </c>
       <c r="NB2" t="n">
-        <v>93.76123</v>
+        <v>93.76049999999999</v>
       </c>
       <c r="NC2" t="n">
-        <v>95.35153</v>
+        <v>95.35065</v>
       </c>
       <c r="ND2" t="n">
-        <v>94.83291</v>
+        <v>94.83193</v>
       </c>
       <c r="NE2" t="n">
-        <v>93.43210999999999</v>
+        <v>93.43153</v>
       </c>
       <c r="NF2" t="n">
-        <v>92.36091</v>
+        <v>92.36015</v>
       </c>
       <c r="NG2" t="n">
-        <v>91.67032</v>
+        <v>91.66952000000001</v>
       </c>
       <c r="NH2" t="n">
-        <v>91.80721</v>
+        <v>91.80683000000001</v>
       </c>
       <c r="NI2" t="n">
-        <v>93.60888</v>
+        <v>93.60754</v>
       </c>
       <c r="NJ2" t="n">
-        <v>95.93037</v>
+        <v>95.93013000000001</v>
       </c>
       <c r="NK2" t="n">
-        <v>95.36009</v>
+        <v>95.35888</v>
       </c>
       <c r="NL2" t="n">
-        <v>95.20121</v>
+        <v>95.20075</v>
       </c>
       <c r="NM2" t="n">
-        <v>94.96389000000001</v>
+        <v>94.96281999999999</v>
       </c>
       <c r="NN2" t="n">
-        <v>93.82453</v>
+        <v>93.82456000000001</v>
       </c>
       <c r="NO2" t="n">
-        <v>93.28039</v>
+        <v>93.27947</v>
       </c>
       <c r="NP2" t="n">
-        <v>93.8668</v>
+        <v>93.86612</v>
       </c>
       <c r="NQ2" t="n">
-        <v>95.43586000000001</v>
+        <v>95.43573000000001</v>
       </c>
       <c r="NR2" t="n">
-        <v>95.62935</v>
+        <v>95.62851999999999</v>
       </c>
       <c r="NS2" t="n">
-        <v>95.80383</v>
+        <v>95.80309</v>
       </c>
       <c r="NT2" t="n">
-        <v>95.16540000000001</v>
+        <v>95.16449</v>
       </c>
       <c r="NU2" t="n">
-        <v>95.40871</v>
+        <v>95.40859</v>
       </c>
       <c r="NV2" t="n">
-        <v>95.69138</v>
+        <v>95.69068</v>
       </c>
       <c r="NW2" t="n">
-        <v>95.22165</v>
+        <v>95.22126</v>
       </c>
       <c r="NX2" t="n">
-        <v>95.18617999999999</v>
+        <v>95.18548</v>
       </c>
       <c r="NY2" t="n">
-        <v>95.11566999999999</v>
+        <v>95.11551</v>
       </c>
       <c r="NZ2" t="n">
-        <v>96.28189</v>
+        <v>96.28131</v>
       </c>
       <c r="OA2" t="n">
-        <v>97.71849</v>
+        <v>97.71836</v>
       </c>
       <c r="OB2" t="n">
-        <v>98.97183</v>
+        <v>98.97098</v>
       </c>
       <c r="OC2" t="n">
-        <v>98.71989000000001</v>
+        <v>98.71935999999999</v>
       </c>
       <c r="OD2" t="n">
-        <v>98.62461999999999</v>
+        <v>98.62430999999999</v>
       </c>
       <c r="OE2" t="n">
-        <v>98.74584</v>
+        <v>98.74514000000001</v>
       </c>
       <c r="OF2" t="n">
-        <v>99.22714999999999</v>
+        <v>99.22696000000001</v>
       </c>
       <c r="OG2" t="n">
-        <v>99.70706</v>
+        <v>99.70645</v>
       </c>
       <c r="OH2" t="n">
-        <v>101.15522</v>
+        <v>101.15442</v>
       </c>
       <c r="OI2" t="n">
-        <v>101.4594</v>
+        <v>101.45878</v>
       </c>
       <c r="OJ2" t="n">
-        <v>101.439</v>
+        <v>101.43821</v>
       </c>
       <c r="OK2" t="n">
-        <v>101.7599</v>
+        <v>101.75926</v>
       </c>
       <c r="OL2" t="n">
-        <v>103.83478</v>
+        <v>103.8344</v>
       </c>
       <c r="OM2" t="n">
-        <v>103.97757</v>
+        <v>103.97661</v>
       </c>
       <c r="ON2" t="n">
-        <v>103.36599</v>
+        <v>103.36485</v>
       </c>
       <c r="OO2" t="n">
-        <v>102.62789</v>
+        <v>102.62685</v>
       </c>
       <c r="OP2" t="n">
-        <v>102.47665</v>
+        <v>102.4763</v>
       </c>
       <c r="OQ2" t="n">
-        <v>103.58414</v>
+        <v>103.58369</v>
       </c>
       <c r="OR2" t="n">
-        <v>103.48278</v>
+        <v>103.48245</v>
       </c>
       <c r="OS2" t="n">
-        <v>104.89357</v>
+        <v>104.89243</v>
       </c>
       <c r="OT2" t="n">
-        <v>105.44658</v>
+        <v>105.44532</v>
       </c>
       <c r="OU2" t="n">
-        <v>105.3841</v>
+        <v>105.38363</v>
       </c>
       <c r="OV2" t="n">
-        <v>104.43467</v>
+        <v>104.43391</v>
       </c>
       <c r="OW2" t="n">
-        <v>103.53358</v>
+        <v>103.53319</v>
       </c>
       <c r="OX2" t="n">
-        <v>104.23343</v>
+        <v>104.23298</v>
       </c>
       <c r="OY2" t="n">
-        <v>104.36049</v>
+        <v>104.35975</v>
       </c>
       <c r="OZ2" t="n">
-        <v>104.4119</v>
+        <v>104.41106</v>
       </c>
       <c r="PA2" t="n">
-        <v>104.20869</v>
+        <v>104.20782</v>
       </c>
       <c r="PB2" t="n">
-        <v>104.23751</v>
+        <v>104.23634</v>
       </c>
       <c r="PC2" t="n">
-        <v>104.45823</v>
+        <v>104.45794</v>
       </c>
       <c r="PD2" t="n">
-        <v>105.19504</v>
+        <v>105.1939</v>
       </c>
       <c r="PE2" t="n">
-        <v>105.97423</v>
+        <v>105.97393</v>
       </c>
       <c r="PF2" t="n">
-        <v>105.34872</v>
+        <v>105.34793</v>
       </c>
       <c r="PG2" t="n">
-        <v>104.70701</v>
+        <v>104.70665</v>
       </c>
       <c r="PH2" t="n">
-        <v>104.89556</v>
+        <v>104.8949</v>
       </c>
       <c r="PI2" t="n">
-        <v>104.06516</v>
+        <v>104.0644</v>
       </c>
       <c r="PJ2" t="n">
-        <v>103.22075</v>
+        <v>103.2205</v>
       </c>
       <c r="PK2" t="n">
-        <v>102.02422</v>
+        <v>102.02349</v>
       </c>
       <c r="PL2" t="n">
-        <v>101.72051</v>
+        <v>101.72015</v>
       </c>
       <c r="PM2" t="n">
-        <v>102.06774</v>
+        <v>102.06677</v>
       </c>
       <c r="PN2" t="n">
-        <v>101.31256</v>
+        <v>101.31196</v>
       </c>
       <c r="PO2" t="n">
-        <v>100.75253</v>
+        <v>100.7517</v>
       </c>
       <c r="PP2" t="n">
-        <v>100.47201</v>
+        <v>100.47162</v>
       </c>
       <c r="PQ2" t="n">
-        <v>100.63755</v>
+        <v>100.63692</v>
       </c>
       <c r="PR2" t="n">
-        <v>101.91678</v>
+        <v>101.91644</v>
       </c>
       <c r="PS2" t="n">
-        <v>101.72902</v>
+        <v>101.72836</v>
       </c>
       <c r="PT2" t="n">
-        <v>102.24197</v>
+        <v>102.24118</v>
       </c>
       <c r="PU2" t="n">
-        <v>102.43874</v>
+        <v>102.43829</v>
       </c>
       <c r="PV2" t="n">
-        <v>103.45482</v>
+        <v>103.45408</v>
       </c>
       <c r="PW2" t="n">
-        <v>103.36616</v>
+        <v>103.36586</v>
       </c>
       <c r="PX2" t="n">
-        <v>103.44886</v>
+        <v>103.44862</v>
       </c>
       <c r="PY2" t="n">
-        <v>103.15082</v>
+        <v>103.14999</v>
       </c>
       <c r="PZ2" t="n">
-        <v>102.52434</v>
+        <v>102.52401</v>
       </c>
       <c r="QA2" t="n">
-        <v>101.90822</v>
+        <v>101.9077</v>
       </c>
       <c r="QB2" t="n">
-        <v>102.24668</v>
+        <v>102.24618</v>
       </c>
       <c r="QC2" t="n">
-        <v>102.73408</v>
+        <v>102.73344</v>
       </c>
       <c r="QD2" t="n">
-        <v>102.72657</v>
+        <v>102.72579</v>
       </c>
       <c r="QE2" t="n">
-        <v>103.07211</v>
+        <v>103.07183</v>
       </c>
       <c r="QF2" t="n">
-        <v>103.22024</v>
+        <v>103.21991</v>
       </c>
       <c r="QG2" t="n">
-        <v>103.86542</v>
+        <v>103.86493</v>
       </c>
       <c r="QH2" t="n">
-        <v>103.48319</v>
+        <v>103.48264</v>
       </c>
       <c r="QI2" t="n">
-        <v>103.33571</v>
+        <v>103.33512</v>
       </c>
       <c r="QJ2" t="n">
-        <v>103.67538</v>
+        <v>103.67506</v>
       </c>
       <c r="QK2" t="n">
-        <v>103.6909</v>
+        <v>103.69023</v>
       </c>
       <c r="QL2" t="n">
-        <v>104.51636</v>
+        <v>104.51586</v>
       </c>
       <c r="QM2" t="n">
-        <v>104.78069</v>
+        <v>104.77992</v>
       </c>
       <c r="QN2" t="n">
-        <v>105.69213</v>
+        <v>105.69163</v>
       </c>
       <c r="QO2" t="n">
-        <v>105.21713</v>
+        <v>105.21643</v>
       </c>
       <c r="QP2" t="n">
-        <v>105.06476</v>
+        <v>105.06409</v>
       </c>
       <c r="QQ2" t="n">
-        <v>104.91664</v>
+        <v>104.91568</v>
       </c>
       <c r="QR2" t="n">
-        <v>106.14233</v>
+        <v>106.14144</v>
       </c>
       <c r="QS2" t="n">
-        <v>106.13087</v>
+        <v>106.13049</v>
       </c>
       <c r="QT2" t="n">
-        <v>105.67438</v>
+        <v>105.67362</v>
       </c>
       <c r="QU2" t="n">
-        <v>105.24536</v>
+        <v>105.24507</v>
       </c>
       <c r="QV2" t="n">
-        <v>105.28215</v>
+        <v>105.28153</v>
       </c>
       <c r="QW2" t="n">
-        <v>103.63072</v>
+        <v>103.63003</v>
       </c>
       <c r="QX2" t="n">
-        <v>103.01789</v>
+        <v>103.0173</v>
       </c>
       <c r="QY2" t="n">
-        <v>100.81069</v>
+        <v>100.81009</v>
       </c>
       <c r="QZ2" t="n">
-        <v>99.99487000000001</v>
+        <v>99.99441</v>
       </c>
       <c r="RA2" t="n">
-        <v>102.88335</v>
+        <v>102.88261</v>
       </c>
       <c r="RB2" t="n">
-        <v>103.05316</v>
+        <v>103.05238</v>
       </c>
       <c r="RC2" t="n">
-        <v>102.39248</v>
+        <v>102.39205</v>
       </c>
       <c r="RD2" t="n">
-        <v>103.28617</v>
+        <v>103.2853</v>
       </c>
       <c r="RE2" t="n">
-        <v>102.6183</v>
+        <v>102.61751</v>
       </c>
       <c r="RF2" t="n">
-        <v>103.1007</v>
+        <v>103.10033</v>
       </c>
       <c r="RG2" t="n">
-        <v>103.87022</v>
+        <v>103.86961</v>
       </c>
       <c r="RH2" t="n">
-        <v>103.5496</v>
+        <v>103.54904</v>
       </c>
       <c r="RI2" t="n">
-        <v>103.66121</v>
+        <v>103.6608</v>
       </c>
       <c r="RJ2" t="n">
-        <v>104.04506</v>
+        <v>104.0446</v>
       </c>
       <c r="RK2" t="n">
-        <v>104.48658</v>
+        <v>104.48606</v>
       </c>
       <c r="RL2" t="n">
-        <v>104.43897</v>
+        <v>104.43817</v>
       </c>
       <c r="RM2" t="n">
-        <v>103.7152</v>
+        <v>103.71473</v>
       </c>
       <c r="RN2" t="n">
-        <v>103.26508</v>
+        <v>103.26435</v>
       </c>
       <c r="RO2" t="n">
-        <v>101.67235</v>
+        <v>101.6719</v>
       </c>
       <c r="RP2" t="n">
-        <v>100.77359</v>
+        <v>100.77284</v>
       </c>
       <c r="RQ2" t="n">
-        <v>99.69061000000001</v>
+        <v>99.68980000000001</v>
       </c>
       <c r="RR2" t="n">
-        <v>97.99876999999999</v>
+        <v>97.99794</v>
       </c>
       <c r="RS2" t="n">
-        <v>97.03373000000001</v>
+        <v>97.03304</v>
       </c>
       <c r="RT2" t="n">
-        <v>98.12643</v>
+        <v>98.12617</v>
       </c>
       <c r="RU2" t="n">
-        <v>97.88996</v>
+        <v>97.88923</v>
       </c>
       <c r="RV2" t="n">
-        <v>98.01468</v>
+        <v>98.01397</v>
       </c>
       <c r="RW2" t="n">
-        <v>99.45166999999999</v>
+        <v>99.45076</v>
       </c>
       <c r="RX2" t="n">
-        <v>98.58953</v>
+        <v>98.589</v>
       </c>
       <c r="RY2" t="n">
-        <v>97.12219</v>
+        <v>97.12193000000001</v>
       </c>
       <c r="RZ2" t="n">
-        <v>97.29487</v>
+        <v>97.29449</v>
       </c>
       <c r="SA2" t="n">
-        <v>97.85245</v>
+        <v>97.85217</v>
       </c>
       <c r="SB2" t="n">
-        <v>98.59187</v>
+        <v>98.59129</v>
       </c>
       <c r="SC2" t="n">
-        <v>99.18317</v>
+        <v>99.18248</v>
       </c>
       <c r="SD2" t="n">
-        <v>98.57765000000001</v>
+        <v>98.57691</v>
       </c>
       <c r="SE2" t="n">
-        <v>98.754</v>
+        <v>98.75354</v>
       </c>
       <c r="SF2" t="n">
-        <v>98.33087999999999</v>
+        <v>98.33002</v>
       </c>
       <c r="SG2" t="n">
-        <v>98.58202</v>
+        <v>98.58135</v>
       </c>
       <c r="SH2" t="n">
-        <v>98.06801</v>
+        <v>98.06771000000001</v>
       </c>
       <c r="SI2" t="n">
-        <v>98.3359</v>
+        <v>98.33553999999999</v>
       </c>
       <c r="SJ2" t="n">
-        <v>98.11511</v>
+        <v>98.11429</v>
       </c>
       <c r="SK2" t="n">
-        <v>97.51029</v>
+        <v>97.50957</v>
       </c>
       <c r="SL2" t="n">
-        <v>96.80002</v>
+        <v>96.79929</v>
       </c>
       <c r="SM2" t="n">
-        <v>96.97149</v>
+        <v>96.97081</v>
       </c>
       <c r="SN2" t="n">
-        <v>97.00895</v>
+        <v>97.00841</v>
       </c>
       <c r="SO2" t="n">
-        <v>96.41606</v>
+        <v>96.41537</v>
       </c>
       <c r="SP2" t="n">
-        <v>95.85477</v>
+        <v>95.85396</v>
       </c>
       <c r="SQ2" t="n">
-        <v>95.70974</v>
+        <v>95.70934</v>
       </c>
       <c r="SR2" t="n">
-        <v>95.24602</v>
+        <v>95.2457</v>
       </c>
       <c r="SS2" t="n">
-        <v>95.47078999999999</v>
+        <v>95.46997</v>
       </c>
       <c r="ST2" t="n">
-        <v>96.33698</v>
+        <v>96.33641</v>
       </c>
       <c r="SU2" t="n">
-        <v>96.43823999999999</v>
+        <v>96.4379</v>
       </c>
       <c r="SV2" t="n">
-        <v>96.01586</v>
+        <v>96.01553</v>
       </c>
       <c r="SW2" t="n">
-        <v>96.89955999999999</v>
+        <v>96.89883</v>
       </c>
       <c r="SX2" t="n">
-        <v>97.56774</v>
+        <v>97.56704000000001</v>
       </c>
       <c r="SY2" t="n">
-        <v>97.91136</v>
+        <v>97.91077</v>
       </c>
       <c r="SZ2" t="n">
-        <v>96.97395</v>
+        <v>96.97338999999999</v>
       </c>
       <c r="TA2" t="n">
-        <v>97.09574000000001</v>
+        <v>97.09495</v>
       </c>
       <c r="TB2" t="n">
-        <v>97.29062</v>
+        <v>97.28979</v>
       </c>
       <c r="TC2" t="n">
-        <v>98.30598999999999</v>
+        <v>98.3053</v>
       </c>
       <c r="TD2" t="n">
-        <v>98.28391000000001</v>
+        <v>98.28304</v>
       </c>
       <c r="TE2" t="n">
-        <v>98.95383</v>
+        <v>98.95321</v>
       </c>
       <c r="TF2" t="n">
-        <v>98.99327</v>
+        <v>98.99292</v>
       </c>
       <c r="TG2" t="n">
-        <v>99.37324</v>
+        <v>99.3728</v>
       </c>
       <c r="TH2" t="n">
-        <v>99.23949</v>
+        <v>99.23886</v>
       </c>
       <c r="TI2" t="n">
-        <v>99.99415</v>
+        <v>99.99359</v>
       </c>
       <c r="TJ2" t="n">
-        <v>99.69540000000001</v>
+        <v>99.69508</v>
       </c>
       <c r="TK2" t="n">
-        <v>99.65260000000001</v>
+        <v>99.65172</v>
       </c>
       <c r="TL2" t="n">
-        <v>100.11342</v>
+        <v>100.11278</v>
       </c>
       <c r="TM2" t="n">
-        <v>99.89462</v>
+        <v>99.89386</v>
       </c>
       <c r="TN2" t="n">
-        <v>99.45945</v>
+        <v>99.45881</v>
       </c>
       <c r="TO2" t="n">
-        <v>99.15858</v>
+        <v>99.15770999999999</v>
       </c>
       <c r="TP2" t="n">
-        <v>98.91374999999999</v>
+        <v>98.91345</v>
       </c>
       <c r="TQ2" t="n">
-        <v>98.63061</v>
+        <v>98.6298</v>
       </c>
       <c r="TR2" t="n">
-        <v>97.81375</v>
+        <v>97.8133</v>
       </c>
       <c r="TS2" t="n">
-        <v>97.72293000000001</v>
+        <v>97.72255</v>
       </c>
       <c r="TT2" t="n">
-        <v>98.02495</v>
+        <v>98.02462</v>
       </c>
       <c r="TU2" t="n">
-        <v>98.83936</v>
+        <v>98.83906</v>
       </c>
       <c r="TV2" t="n">
-        <v>97.06946000000001</v>
+        <v>97.06870000000001</v>
       </c>
       <c r="TW2" t="n">
-        <v>96.61906999999999</v>
+        <v>96.61825</v>
       </c>
       <c r="TX2" t="n">
-        <v>95.03649</v>
+        <v>95.03586</v>
       </c>
       <c r="TY2" t="n">
-        <v>94.35231</v>
+        <v>94.35153</v>
       </c>
       <c r="TZ2" t="n">
-        <v>95.29461000000001</v>
+        <v>95.29380999999999</v>
       </c>
       <c r="UA2" t="n">
-        <v>95.88527999999999</v>
+        <v>95.88477</v>
       </c>
       <c r="UB2" t="n">
-        <v>95.37851999999999</v>
+        <v>95.37802000000001</v>
       </c>
       <c r="UC2" t="n">
-        <v>96.81871</v>
+        <v>96.8184</v>
       </c>
       <c r="UD2" t="n">
-        <v>97.5788</v>
+        <v>97.57810000000001</v>
       </c>
       <c r="UE2" t="n">
-        <v>97.2568</v>
+        <v>97.25637999999999</v>
       </c>
       <c r="UF2" t="n">
-        <v>95.60046</v>
+        <v>95.5996</v>
       </c>
       <c r="UG2" t="n">
-        <v>96.58759999999999</v>
+        <v>96.58684</v>
       </c>
       <c r="UH2" t="n">
-        <v>96.9807</v>
+        <v>96.98003</v>
       </c>
       <c r="UI2" t="n">
-        <v>97.67563</v>
+        <v>97.67521000000001</v>
       </c>
       <c r="UJ2" t="n">
-        <v>96.98372000000001</v>
+        <v>96.98286</v>
       </c>
       <c r="UK2" t="n">
-        <v>97.07893</v>
+        <v>97.07859000000001</v>
       </c>
       <c r="UL2" t="n">
-        <v>97.30579</v>
+        <v>97.30521</v>
       </c>
       <c r="UM2" t="n">
-        <v>96.94898999999999</v>
+        <v>96.94851</v>
       </c>
       <c r="UN2" t="n">
-        <v>96.73708000000001</v>
+        <v>96.73668000000001</v>
       </c>
       <c r="UO2" t="n">
-        <v>96.97418999999999</v>
+        <v>96.97363</v>
       </c>
       <c r="UP2" t="n">
-        <v>96.96964</v>
+        <v>96.96926000000001</v>
       </c>
       <c r="UQ2" t="n">
-        <v>96.72756</v>
+        <v>96.7272</v>
       </c>
       <c r="UR2" t="n">
-        <v>96.13209000000001</v>
+        <v>96.13129000000001</v>
       </c>
       <c r="US2" t="n">
-        <v>95.63043999999999</v>
+        <v>95.62985</v>
       </c>
       <c r="UT2" t="n">
-        <v>95.49177</v>
+        <v>95.49138000000001</v>
       </c>
       <c r="UU2" t="n">
-        <v>94.99521</v>
+        <v>94.99473</v>
       </c>
       <c r="UV2" t="n">
-        <v>95.1317</v>
+        <v>95.13104</v>
       </c>
       <c r="UW2" t="n">
-        <v>95.08422</v>
+        <v>95.0834</v>
       </c>
       <c r="UX2" t="n">
-        <v>96.11993</v>
+        <v>96.11913</v>
       </c>
       <c r="UY2" t="n">
-        <v>96.57715</v>
+        <v>96.57659</v>
       </c>
       <c r="UZ2" t="n">
-        <v>97.50165</v>
+        <v>97.50098</v>
       </c>
       <c r="VA2" t="n">
-        <v>98.2941</v>
+        <v>98.29334</v>
       </c>
       <c r="VB2" t="n">
-        <v>98.03807</v>
+        <v>98.03725</v>
       </c>
       <c r="VC2" t="n">
-        <v>97.90797999999999</v>
+        <v>97.90736</v>
       </c>
       <c r="VD2" t="n">
-        <v>98.00067</v>
+        <v>98.00027</v>
       </c>
       <c r="VE2" t="n">
-        <v>98.02701</v>
+        <v>98.02625999999999</v>
       </c>
       <c r="VF2" t="n">
-        <v>98.09357</v>
+        <v>98.09294</v>
       </c>
       <c r="VG2" t="n">
-        <v>98.02642</v>
+        <v>98.02597</v>
       </c>
       <c r="VH2" t="n">
-        <v>98.16809000000001</v>
+        <v>98.16768999999999</v>
       </c>
       <c r="VI2" t="n">
-        <v>97.97605</v>
+        <v>97.9756</v>
       </c>
       <c r="VJ2" t="n">
-        <v>97.11946</v>
+        <v>97.11877</v>
       </c>
       <c r="VK2" t="n">
-        <v>96.94847</v>
+        <v>96.94759999999999</v>
       </c>
       <c r="VL2" t="n">
-        <v>97.5599</v>
+        <v>97.5595</v>
       </c>
       <c r="VM2" t="n">
-        <v>97.70733</v>
+        <v>97.70663999999999</v>
       </c>
       <c r="VN2" t="n">
-        <v>98.07192999999999</v>
+        <v>98.07135</v>
       </c>
       <c r="VO2" t="n">
-        <v>97.38113</v>
+        <v>97.38061</v>
       </c>
       <c r="VP2" t="n">
-        <v>96.84012</v>
+        <v>96.83926</v>
       </c>
       <c r="VQ2" t="n">
-        <v>97.05314</v>
+        <v>97.05280999999999</v>
       </c>
       <c r="VR2" t="n">
-        <v>96.96142</v>
+        <v>96.96068</v>
       </c>
       <c r="VS2" t="n">
-        <v>96.49847</v>
+        <v>96.49773</v>
       </c>
       <c r="VT2" t="n">
-        <v>96.07697</v>
+        <v>96.07662999999999</v>
       </c>
       <c r="VU2" t="n">
-        <v>95.65455</v>
+        <v>95.65411</v>
       </c>
       <c r="VV2" t="n">
-        <v>95.97816</v>
+        <v>95.9776</v>
       </c>
       <c r="VW2" t="n">
-        <v>96.2176</v>
+        <v>96.21715</v>
       </c>
       <c r="VX2" t="n">
-        <v>95.97913</v>
+        <v>95.97839</v>
       </c>
       <c r="VY2" t="n">
-        <v>96.51591999999999</v>
+        <v>96.51524000000001</v>
       </c>
       <c r="VZ2" t="n">
-        <v>96.12948</v>
+        <v>96.12875</v>
       </c>
       <c r="WA2" t="n">
-        <v>96.14655</v>
+        <v>96.14575000000001</v>
       </c>
       <c r="WB2" t="n">
-        <v>95.86217000000001</v>
+        <v>95.86138</v>
       </c>
       <c r="WC2" t="n">
-        <v>95.84054</v>
+        <v>95.83981</v>
       </c>
       <c r="WD2" t="n">
-        <v>95.68073</v>
+        <v>95.68028</v>
       </c>
       <c r="WE2" t="n">
-        <v>95.23434</v>
+        <v>95.23837</v>
       </c>
       <c r="WF2" t="n">
-        <v>96.9393</v>
+        <v>96.94129</v>
       </c>
       <c r="WG2" t="n">
-        <v>97.1259</v>
+        <v>97.13499</v>
       </c>
       <c r="WH2" t="n">
-        <v>97.14973999999999</v>
+        <v>97.15900999999999</v>
       </c>
       <c r="WI2" t="n">
-        <v>97.73657</v>
+        <v>97.74581999999999</v>
       </c>
       <c r="WJ2" t="n">
-        <v>97.95335</v>
+        <v>97.96247</v>
       </c>
       <c r="WK2" t="n">
-        <v>98.89191</v>
+        <v>98.90145</v>
       </c>
       <c r="WL2" t="n">
-        <v>98.76325</v>
+        <v>98.77266</v>
       </c>
       <c r="WM2" t="n">
-        <v>98.65488999999999</v>
+        <v>98.66173000000001</v>
       </c>
       <c r="WN2" t="n">
-        <v>98.15861</v>
+        <v>98.16802</v>
       </c>
       <c r="WO2" t="n">
-        <v>98.53001</v>
+        <v>98.53959999999999</v>
       </c>
       <c r="WP2" t="n">
-        <v>98.46017000000001</v>
+        <v>98.47463999999999</v>
       </c>
       <c r="WQ2" t="n">
-        <v>97.74145</v>
+        <v>97.75528</v>
       </c>
       <c r="WR2" t="n">
-        <v>97.32657</v>
+        <v>97.34339</v>
       </c>
       <c r="WS2" t="n">
-        <v>97.32084999999999</v>
+        <v>97.33725</v>
       </c>
       <c r="WT2" t="n">
-        <v>97.38144</v>
+        <v>97.3963</v>
       </c>
       <c r="WU2" t="n">
-        <v>97.32742</v>
+        <v>97.34495</v>
       </c>
       <c r="WV2" t="n">
-        <v>96.9302</v>
+        <v>96.95294</v>
       </c>
       <c r="WW2" t="n">
-        <v>96.77909</v>
+        <v>96.79967000000001</v>
       </c>
       <c r="WX2" t="n">
-        <v>97.05237</v>
+        <v>97.07455</v>
       </c>
       <c r="WY2" t="n">
-        <v>96.21451999999999</v>
+        <v>96.23992</v>
       </c>
       <c r="WZ2" t="n">
-        <v>95.79080999999999</v>
+        <v>95.81891</v>
       </c>
       <c r="XA2" t="n">
-        <v>95.79729</v>
+        <v>95.80589000000001</v>
       </c>
       <c r="XB2" t="n">
-        <v>95.95162999999999</v>
+        <v>95.89886</v>
       </c>
       <c r="XC2" t="n">
-        <v>96.33356999999999</v>
+        <v>96.018</v>
+      </c>
+      <c r="XD2" t="n">
+        <v>96.15928</v>
       </c>
     </row>
   </sheetData>
